--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1062.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1062.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.032130605510642</v>
+        <v>1.031442674476159</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.213931197015377</v>
+        <v>1.212253438463209</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.225300195813366</v>
+        <v>0.2255819276270106</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9022744382495962</v>
+        <v>0.9007679409908051</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.225300195813366</v>
+        <v>0.2255819276270106</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9022744382495962</v>
+        <v>0.9007679409908051</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.225300195813366</v>
+        <v>0.2255819276270106</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9022744382495962</v>
+        <v>0.9007679409908051</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.4170385681036359</v>
+        <v>0.416557544099451</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.8831278501745423</v>
+        <v>0.8816498206513749</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.4170385681036359</v>
+        <v>0.416557544099451</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.8831278501745423</v>
+        <v>0.8816498206513749</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.082109554132009</v>
+        <v>1.081117335045153</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.03231875928064676</v>
+        <v>0.03264634548754331</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.009507474014189</v>
+        <v>1.008590232634879</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.625566821822748</v>
+        <v>0.6240507572177331</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.2</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9022744382495962</v>
+        <v>0.9007679409908051</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.2</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.905978360688567</v>
+        <v>0.904519804479737</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.2</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9096822831275378</v>
+        <v>0.9082716679686689</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.4170385681036359</v>
+        <v>0.416557544099451</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.8831278501745423</v>
+        <v>0.8816498206513749</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.4170385681036359</v>
+        <v>0.416557544099451</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.7232806203815144</v>
+        <v>0.7214177001838007</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.04309167904086234</v>
+        <v>0.04352846065005775</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>0.9922829825848555</v>
+        <v>0.9911035621886706</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.6045211526665973</v>
+        <v>0.6030108718198448</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9022744382495962</v>
+        <v>0.9007679409908051</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.7912726684531348</v>
+        <v>0.789535778018001</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.6802708986566736</v>
+        <v>0.6783036150451968</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.4170385681036359</v>
+        <v>0.416557544099451</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.8831278501745423</v>
+        <v>0.8816498206513749</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.4170385681036359</v>
+        <v>0.416557544099451</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.6802708986566743</v>
+        <v>0.6783036150451964</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.05129381781673552</v>
+        <v>0.05185544657682357</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>0.9527891008786558</v>
+        <v>0.95148308473779</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.07010042815302112</v>
+        <v>0.07072234060105242</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.9096822831275378</v>
+        <v>0.9082716679686689</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.090627484224982</v>
+        <v>0.09129920572920534</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.8608050520522036</v>
+        <v>0.8593249700235708</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.1139023561656174</v>
+        <v>0.114607157131633</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.8063717900091341</v>
+        <v>0.8048560680296448</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.1398229571385076</v>
+        <v>0.140544729509693</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.7482919254121383</v>
+        <v>0.7467627651810985</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.4170385681036359</v>
+        <v>0.416557544099451</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1674800355180294</v>
+        <v>0.1682082070566198</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.6878312367488091</v>
+        <v>0.6863031334954734</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1962708396434243</v>
+        <v>0.1969985078592984</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.625566821822748</v>
+        <v>0.6240507572177331</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>8.340771362072719</v>
+        <v>8.33115088198902</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.2259205610367867</v>
+        <v>0.2266424965629843</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.6045211526665973</v>
+        <v>0.6030108718198448</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.3670385681036359</v>
+        <v>0.366557544099451</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.4</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.4</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.2019922455040422</v>
+        <v>0.2040396592971457</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.2019922455040422</v>
+        <v>0.2040396592971457</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.4</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.4</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.2019922455040422</v>
+        <v>0.2040396592971457</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.4039844910080845</v>
+        <v>0.4080793185942914</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.3075802040952444</v>
+        <v>0.3122619722537185</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.7115646951033289</v>
+        <v>0.7203412908480099</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.41049577522142</v>
+        <v>1.415017051817164</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>2.122060470324748</v>
+        <v>2.135358342665174</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>3.079058410794133</v>
+        <v>3.086529769222939</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>5.201118881118881</v>
+        <v>5.221888111888113</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>6.982461582190612</v>
+        <v>6.992385420728308</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>12.18358046330949</v>
+        <v>12.21427353261642</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>15.55236058373414</v>
+        <v>15.56254342683598</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>27.73594104704363</v>
+        <v>27.7768169594524</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>33.18849405542616</v>
+        <v>33.19617305631218</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>60.92443510246979</v>
+        <v>60.97299001576457</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>69.09792990094783</v>
+        <v>69.09672192642861</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>130.0223650034176</v>
+        <v>130.0697119421932</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>142.3186626881394</v>
+        <v>142.2911457776925</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>272.341027691557</v>
+        <v>272.3608577198857</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>72.15657996394538</v>
+        <v>72.13674993561671</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
